--- a/SchVictorina.WebAPI/Config/excels/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/mountains.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0F499-1A62-44E3-BC54-C7F2E270AB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF377358-ACA1-4C93-8501-0C808EB28EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Название</t>
   </si>
@@ -164,10 +164,13 @@
     <t>Когда покорили {Название}?</t>
   </si>
   <si>
-    <t>Какую гору покорили в {Первое восхождение}?</t>
-  </si>
-  <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Какую гору покорили в {Первое восхождение} году?</t>
+  </si>
+  <si>
+    <t>Описание</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,10 +572,11 @@
     <col min="3" max="3" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,8 +592,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -606,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -623,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -640,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -657,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -674,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -691,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -708,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -725,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -742,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -759,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -776,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -793,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
   </sheetData>
@@ -829,7 +836,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,6 +845,7 @@
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,7 +868,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,6 +884,9 @@
       <c r="F2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -890,6 +901,9 @@
       <c r="F3" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -901,6 +915,9 @@
       <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -909,13 +926,19 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/SchVictorina.WebAPI/Config/excels/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/mountains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF377358-ACA1-4C93-8501-0C808EB28EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE2706-EE32-48D6-8751-DD4B2DEEFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Название</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Описание</t>
+  </si>
+  <si>
+    <t>Страна ~ Россия</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,12 +839,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -934,6 +938,9 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>0</v>
       </c>

--- a/SchVictorina.WebAPI/Config/excels/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/mountains.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE2706-EE32-48D6-8751-DD4B2DEEFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C4A50D-C24D-4581-9F29-3C004EEA1A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
     <sheet name="Вопросы" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Название</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>Страна ~ Россия</t>
+  </si>
+  <si>
+    <t>Уровень</t>
+  </si>
+  <si>
+    <t>Алтай — горный Алтай, горная система в Азии, на юге Сибири и в Центральной Азии, состоящая из высокогорных и среднегорных хребтов, разделённых глубокими долинами рек и обширными внутригорными и межгорными котловинами. Входит в состав субширотной горной страны «горы Южной Сибири».</t>
+  </si>
+  <si>
+    <t>Альпы — самый высокий и протяжённый горный хребет среди систем, целиком лежащих в Европе. При этом Кавказские горы выше, а Уральские — протяжённей, но они лежат также и на территории Азии (в зависимости от выбранного определения границы между Европой и Азией). Альпы представляют собой сложную систему хребтов и массивов, протянувшуюся выпуклой к северо-западу дугой от Лигурийского моря до Среднедунайской низменности. Альпы располагаются на территории 8 стран: Франции, Монако, Италии, Швейцарии, Германии, Австрии, Лихтенштейна и Словении.</t>
+  </si>
+  <si>
+    <t>Гималаи — высочайшая горная система Земли. Гималаи расположены между Тибетским нагорьем (на севере) и Индо-Гангской равниной (на юге). Резко выражен климатический и природный рубеж между горными пустынями Центральной Азии и тропическими ландшафтами Южной Азии. Гималаи раскинулись на территории Индии, Непала, Тибетского автономного района Китая, Пакистана, Бутана и Мьянмы. Предгорья Гималаев также занимают крайнюю северную часть Бангладеш[3]. Горная система Гималаев на стыке Центральной и Южной Азии имеет свыше 2900 км в длину и около 350 км в ширину. Площадь составляет приблизительно 650 тыс. км².</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпаты — горная система в Восточной Европе на территории Чехии, Словакии, Украины, Венгрии, Польши, Румынии, Сербии и частично Австрии (Хундсхаймер-Берге у Хайнбурга-на-Дунае и Нидеростеррайхише Инзельбергшвелле у Мистельбаха). Согласно римским хроникам I века н. э., в данной местности жило дакийское племя карпов. Историки и лингвисты затрудняются дать ответ на вопрос: племя названо по горам, или наоборот. В эпоху Античности и Средневековья Карпаты именовались Сарматскими горами. Также назывались Угорскими (Венгерскими). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пернеи — горная система во Франции, Испании и Андорре, между Бискайским заливом и Средиземным морем. Исторически по обе стороны горного хребта простирались Княжество Каталония, Королевство Арагон, Окситания и Королевство Наварра. Количество выпадающих осадков, включая дождь и снег, на западе значительно больше, чем в восточных Пиренеях из-за влажного воздуха, который поступает из Атлантического океана над Бискайским заливом. После выпадения влаги над западными и центральными Пиренеями воздух остаётся сухим над восточными Пиренеями. Средняя температура зимой составляет −2 °C (28,4 °F). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Урал — географический регион в России, протянувшийся между Восточно-Европейской и Западно-Сибирской равнинами. Основной частью этого региона являются Уральские горы. На востоке региона также находится часть бассейна реки Урал, впадающей в Каспийское море. </t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -562,270 +586,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-  <dimension ref="A1:F15"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
         <v>4509</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>1933</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>4478</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>1865</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>8848</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>1953</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>3755</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1889</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
         <v>2655</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>1796</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>2502</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>1923</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
         <v>6961</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>1934</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>7723</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>1985</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <v>3404</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>1842</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
         <v>2063</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>1906</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>7439</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>1931</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>1895</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>1929</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3">
         <v>3724</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>1894</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+  <autoFilter ref="A1:F14" xr:uid="{56986E0B-A4A6-4723-A20F-D2A7B21D0681}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
       <sortCondition ref="A1:A14"/>
     </sortState>
   </autoFilter>
@@ -836,11 +908,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9647E8-66DC-4ED7-9D1E-DC0058036050}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -852,7 +922,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -874,8 +944,11 @@
       <c r="G1" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -891,8 +964,11 @@
       <c r="G2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -908,8 +984,11 @@
       <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -922,8 +1001,11 @@
       <c r="G4" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -933,8 +1015,11 @@
       <c r="G5" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -946,6 +1031,9 @@
       </c>
       <c r="G6" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SchVictorina.WebAPI/Config/excels/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/mountains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C4A50D-C24D-4581-9F29-3C004EEA1A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54243BA2-2AAB-407B-9E9D-A5445E013029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Альпы — самый высокий и протяжённый горный хребет среди систем, целиком лежащих в Европе. При этом Кавказские горы выше, а Уральские — протяжённей, но они лежат также и на территории Азии (в зависимости от выбранного определения границы между Европой и Азией). Альпы представляют собой сложную систему хребтов и массивов, протянувшуюся выпуклой к северо-западу дугой от Лигурийского моря до Среднедунайской низменности. Альпы располагаются на территории 8 стран: Франции, Монако, Италии, Швейцарии, Германии, Австрии, Лихтенштейна и Словении.</t>
   </si>
   <si>
-    <t>Гималаи — высочайшая горная система Земли. Гималаи расположены между Тибетским нагорьем (на севере) и Индо-Гангской равниной (на юге). Резко выражен климатический и природный рубеж между горными пустынями Центральной Азии и тропическими ландшафтами Южной Азии. Гималаи раскинулись на территории Индии, Непала, Тибетского автономного района Китая, Пакистана, Бутана и Мьянмы. Предгорья Гималаев также занимают крайнюю северную часть Бангладеш[3]. Горная система Гималаев на стыке Центральной и Южной Азии имеет свыше 2900 км в длину и около 350 км в ширину. Площадь составляет приблизительно 650 тыс. км².</t>
-  </si>
-  <si>
     <t xml:space="preserve">Карпаты — горная система в Восточной Европе на территории Чехии, Словакии, Украины, Венгрии, Польши, Румынии, Сербии и частично Австрии (Хундсхаймер-Берге у Хайнбурга-на-Дунае и Нидеростеррайхише Инзельбергшвелле у Мистельбаха). Согласно римским хроникам I века н. э., в данной местности жило дакийское племя карпов. Историки и лингвисты затрудняются дать ответ на вопрос: племя названо по горам, или наоборот. В эпоху Античности и Средневековья Карпаты именовались Сарматскими горами. Также назывались Угорскими (Венгерскими). </t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>Гималаи — высочайшая горная система Земли. Гималаи расположены между Тибетским нагорьем (на севере) и Индо-Гангской равниной (на юге). Резко выражен климатический и природный рубеж между горными пустынями Центральной Азии и тропическими ландшафтами Южной Азии. Гималаи раскинулись на территории Индии, Непала, Тибетского автономного района Китая, Пакистана, Бутана и Мьянмы. Предгорья Гималаев также занимают крайнюю северную часть Бангладеш. Горная система Гималаев на стыке Центральной и Южной Азии имеет свыше 2900 км в длину и около 350 км в ширину. Площадь составляет приблизительно 650 тыс. км².</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -692,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -732,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -807,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -865,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -945,7 +947,7 @@
         <v>41</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/SchVictorina.WebAPI/Config/excels/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/mountains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54243BA2-2AAB-407B-9E9D-A5445E013029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7649E464-915C-4667-95D6-5CF63987CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Название</t>
   </si>
@@ -194,10 +194,13 @@
     <t xml:space="preserve">Урал — географический регион в России, протянувшийся между Восточно-Европейской и Западно-Сибирской равнинами. Основной частью этого региона являются Уральские горы. На востоке региона также находится часть бассейна реки Урал, впадающей в Каспийское море. </t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>Гималаи — высочайшая горная система Земли. Гималаи расположены между Тибетским нагорьем (на севере) и Индо-Гангской равниной (на юге). Резко выражен климатический и природный рубеж между горными пустынями Центральной Азии и тропическими ландшафтами Южной Азии. Гималаи раскинулись на территории Индии, Непала, Тибетского автономного района Китая, Пакистана, Бутана и Мьянмы. Предгорья Гималаев также занимают крайнюю северную часть Бангладеш. Горная система Гималаев на стыке Центральной и Южной Азии имеет свыше 2900 км в длину и около 350 км в ширину. Площадь составляет приблизительно 650 тыс. км².</t>
+  </si>
+  <si>
+    <t>questionImage</t>
+  </si>
+  <si>
+    <t>descriptionImage</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -694,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -910,9 +913,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9647E8-66DC-4ED7-9D1E-DC0058036050}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -924,7 +929,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -947,10 +952,13 @@
         <v>41</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -970,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -990,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>

--- a/SchVictorina.WebAPI/Config/excels/mountains.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/mountains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7649E464-915C-4667-95D6-5CF63987CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C70520-D6A9-4475-B7AC-3B42983B9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58996942-A194-4CF7-8E0B-222C89F5D031}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>Уровень</t>
   </si>
   <si>
-    <t>Алтай — горный Алтай, горная система в Азии, на юге Сибири и в Центральной Азии, состоящая из высокогорных и среднегорных хребтов, разделённых глубокими долинами рек и обширными внутригорными и межгорными котловинами. Входит в состав субширотной горной страны «горы Южной Сибири».</t>
-  </si>
-  <si>
     <t>Альпы — самый высокий и протяжённый горный хребет среди систем, целиком лежащих в Европе. При этом Кавказские горы выше, а Уральские — протяжённей, но они лежат также и на территории Азии (в зависимости от выбранного определения границы между Европой и Азией). Альпы представляют собой сложную систему хребтов и массивов, протянувшуюся выпуклой к северо-западу дугой от Лигурийского моря до Среднедунайской низменности. Альпы располагаются на территории 8 стран: Франции, Монако, Италии, Швейцарии, Германии, Австрии, Лихтенштейна и Словении.</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>descriptionImage</t>
+  </si>
+  <si>
+    <t>Алтай — горная система в Азии, на юге Сибири и в Центральной Азии, состоящая из высокогорных и среднегорных хребтов, разделённых глубокими долинами рек и обширными внутригорными и межгорными котловинами. Входит в состав субширотной горной страны «горы Южной Сибири».</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9647E8-66DC-4ED7-9D1E-DC0058036050}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -952,10 +952,10 @@
         <v>41</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
